--- a/Assignments/Assignment-3/Question-4.xlsx
+++ b/Assignments/Assignment-3/Question-4.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apmna\OneDrive\Documents\GitHub\P452_Computational_Physics\Assignments\Assignment-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879526C3-C89A-49BE-BCFC-04497235F461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F382A2-EC9E-49E5-9112-F71E1B3B414C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3A9FAE18-D9E4-4CAE-9E60-DED296BC02B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3A9FAE18-D9E4-4CAE-9E60-DED296BC02B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Question-4" sheetId="1" r:id="rId1"/>
+    <sheet name="Question-3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Question - 4</t>
   </si>
@@ -67,16 +68,65 @@
   </si>
   <si>
     <t>Calculations for Students t-Test</t>
+  </si>
+  <si>
+    <t>Calculations for Students F-Test</t>
+  </si>
+  <si>
+    <t>F-Value</t>
+  </si>
+  <si>
+    <t>Q-Value</t>
+  </si>
+  <si>
+    <t>Calculationds for the Significance test</t>
+  </si>
+  <si>
+    <t>Question-3</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Unbiased Distribution f(x)</t>
+  </si>
+  <si>
+    <t>Expected Frequency Nf(x)</t>
+  </si>
+  <si>
+    <t>Observed Frequency</t>
+  </si>
+  <si>
+    <t>x-point</t>
+  </si>
+  <si>
+    <t>chi Square</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +158,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -123,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -159,11 +232,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,35 +256,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,60 +619,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F11618-1E47-4A02-B06A-CD3C336A731D}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="F4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="L4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -573,193 +698,738 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="11"/>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
-      <c r="C6" s="9">
+      <c r="C6" s="5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+      <c r="G6" s="5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>4.84</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>4.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F7" s="11"/>
+      <c r="G7" s="5">
+        <v>4.84</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.79</v>
+      </c>
+      <c r="L7" s="11"/>
+      <c r="M7" s="5">
+        <v>4.84</v>
+      </c>
+      <c r="N7" s="5">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>4.59</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="11"/>
+      <c r="G8" s="5">
+        <v>4.59</v>
+      </c>
+      <c r="H8" s="5">
+        <v>4.74</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="5">
+        <v>4.59</v>
+      </c>
+      <c r="N8" s="5">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>4.75</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="11"/>
+      <c r="G9" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.74</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="N9" s="5">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>4.63</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>4.7699999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="11"/>
+      <c r="G10" s="5">
+        <v>4.63</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="L10" s="11"/>
+      <c r="M10" s="5">
+        <v>4.63</v>
+      </c>
+      <c r="N10" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>4.75</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="11"/>
+      <c r="G11" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="5">
+        <v>4.75</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>4.58</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>4.8099999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="11"/>
+      <c r="G12" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="5">
+        <v>4.58</v>
+      </c>
+      <c r="N12" s="5">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>4.82</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="5">
+        <v>4.82</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="5">
+        <v>4.82</v>
+      </c>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>4.8600000000000003</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="5">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="5">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>4.7699999999999996</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="9">
+      <c r="C17" s="5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>4.8</v>
       </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <f>AVERAGE(C6:C18)</f>
         <v>4.7146153846153842</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <f>AVERAGE(D6:D18)</f>
         <v>4.74</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <f>AVERAGE(G6:G18)</f>
+        <v>4.7146153846153842</v>
+      </c>
+      <c r="H19" s="4">
+        <f>AVERAGE(H6:H18)</f>
+        <v>4.74</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="4">
+        <f>AVERAGE(M6:M18)</f>
+        <v>4.7146153846153842</v>
+      </c>
+      <c r="N19" s="4">
+        <f>AVERAGE(N6:N18)</f>
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <f>STDEV(C6:C18)</f>
         <v>0.1012929237916273</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <f>STDEV(D6:D18)</f>
         <v>7.5277265270907986E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <f>STDEV(G6:G18)</f>
+        <v>0.1012929237916273</v>
+      </c>
+      <c r="H20" s="4">
+        <f>STDEV(H6:H18)</f>
+        <v>7.5277265270907986E-2</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="4">
+        <f>STDEV(M6:M18)</f>
+        <v>0.1012929237916273</v>
+      </c>
+      <c r="N20" s="4">
+        <f>STDEV(N6:N18)</f>
+        <v>7.5277265270907986E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <f>C20*C20</f>
         <v>1.0260256410256416E-2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <f>D20*D20</f>
         <v>5.6666666666666497E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4">
+        <f>G20*G20</f>
+        <v>1.0260256410256416E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f>H20*H20</f>
+        <v>5.6666666666666497E-3</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="4">
+        <f>M20*M20</f>
+        <v>1.0260256410256416E-2</v>
+      </c>
+      <c r="N21" s="4">
+        <f>N20*N20</f>
+        <v>5.6666666666666497E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <f>COUNT(C6:C18)</f>
         <v>13</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <f>COUNT(D6:D18)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <f>COUNT(G6:G18)</f>
+        <v>13</v>
+      </c>
+      <c r="H22" s="4">
+        <f>COUNT(H6:H18)</f>
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="4">
+        <f>COUNT(M6:M18)</f>
+        <v>13</v>
+      </c>
+      <c r="N22" s="4">
+        <f>COUNT(N6:N18)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="10">
         <f>ABS(C19-D19)/(SQRT((C21/C22)+(D21/D22)))</f>
         <v>0.63485860136780758</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10">
+        <f>G21/H21</f>
+        <v>1.8106334841629024</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="L23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="10">
+        <f>ABS(M19-N19)/(SQRT((M21/M22)+(N21/N22)))</f>
+        <v>0.63485860136780758</v>
+      </c>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="8">
         <f>TTEST(C6:C18,D6:D12,2,2)</f>
         <v>0.56940002719251703</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="8">
+        <f>FTEST(G6:G18,H6:H12)</f>
+        <v>0.48042592955905433</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="L24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="8">
+        <f>TTEST(M6:M18,N6:N12,2,2)</f>
+        <v>0.56940002719251703</v>
+      </c>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10">
+        <f>G23</f>
+        <v>1.8106334841629024</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="L25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="10">
+        <f>G23</f>
+        <v>1.8106334841629024</v>
+      </c>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8">
+        <f>G24</f>
+        <v>0.48042592955905433</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="L26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="8">
+        <f>G24</f>
+        <v>0.48042592955905433</v>
+      </c>
+      <c r="N26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="17">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="L4:L18"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="B4:B18"/>
+    <mergeCell ref="F4:F18"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A45844-C63F-4059-B672-9A2228430CD2}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="16"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>0.95-0.68</f>
+        <v>0.26999999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15">
+        <f>(1/SQRT(2*PI()))*EXP(-(C14^2)/2)</f>
+        <v>5.3990966513188063E-2</v>
+      </c>
+      <c r="F14" s="15">
+        <f>600*E14</f>
+        <v>32.394579907912835</v>
+      </c>
+      <c r="G14" s="15">
+        <v>77</v>
+      </c>
+      <c r="H14" s="19">
+        <f>((G14-F14)^2)/F14</f>
+        <v>61.419024640772534</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="14">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" ref="E15:E18" si="0">(1/SQRT(2*PI()))*EXP(-(C15^2)/2)</f>
+        <v>0.24197072451914337</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" ref="F15:F18" si="1">600*E15</f>
+        <v>145.18243471148602</v>
+      </c>
+      <c r="G15" s="15">
+        <v>150</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" ref="H15:H18" si="2">((G15-F15)^2)/F15</f>
+        <v>0.1598604910794941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3989422804014327</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>239.36536824085962</v>
+      </c>
+      <c r="G16" s="15">
+        <v>210</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="2"/>
+        <v>3.6025464262381477</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="14">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.24197072451914337</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
+        <v>145.18243471148602</v>
+      </c>
+      <c r="G17" s="15">
+        <v>125</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="2"/>
+        <v>2.8056470584259339</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="14">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>5.3990966513188063E-2</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>32.394579907912835</v>
+      </c>
+      <c r="G18" s="15">
+        <v>38</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="2"/>
+        <v>0.96993801117635492</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="20">
+        <f>SUM(H14:H18)</f>
+        <v>68.957016627692454</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="17">
+        <f>SUM(E14:E18)</f>
+        <v>0.99086566246609553</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="C19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>